--- a/Data_all/Data_12_all.xlsx
+++ b/Data_all/Data_12_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>平均エラー数</t>
     <rPh sb="0" eb="2">
@@ -141,6 +141,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -169,18 +176,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -210,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -223,8 +224,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,43 +528,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -1549,21 +1548,99 @@
         <v>1.3086666666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
-        <f>AVERAGE(L3:L14)</f>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <f>AVERAGE(B3:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:L15" si="8">AVERAGE(C3:C14)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="8"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="8"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="8"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="8"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="8"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="8"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="8"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="8"/>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="N17" s="7">
-        <f>AVERAGE(Y3:Y14)</f>
+      <c r="N15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="4">
+        <f>AVERAGE(O3:O14)</f>
+        <v>1.1338888888888887</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" ref="P15:Y15" si="9">AVERAGE(P3:P14)</f>
+        <v>1.2933333333333332</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="9"/>
+        <v>1.1133333333333335</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="9"/>
+        <v>0.85111111111111104</v>
+      </c>
+      <c r="S15" s="4">
+        <f t="shared" si="9"/>
+        <v>1.0972222222222223</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="9"/>
+        <v>0.99611111111111106</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="9"/>
+        <v>1.2905555555555555</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="9"/>
+        <v>1.21</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" si="9"/>
+        <v>1.1994444444444443</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="9"/>
+        <v>1.3783333333333332</v>
+      </c>
+      <c r="Y15" s="4">
+        <f t="shared" si="9"/>
         <v>1.1563333333333332</v>
       </c>
     </row>

--- a/Data_all/Data_12_all.xlsx
+++ b/Data_all/Data_12_all.xlsx
@@ -239,6 +239,435 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="231896576"/>
+        <c:axId val="231898112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="231896576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="231898112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="231898112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="231896576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.3993333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3113333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99466666666666659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92466666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97466666666666657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1386666666666665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2906666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3086666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="231930496"/>
+        <c:axId val="232530304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="231930496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="232530304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="232530304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="231930496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>74084</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>64558</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>232832</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>677332</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>11641</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,7 +960,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="N17" sqref="N17:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1652,6 +2081,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data_all/Data_12_all.xlsx
+++ b/Data_all/Data_12_all.xlsx
@@ -268,8 +268,98 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.16666666666666669</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.16666666666666669</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -371,11 +461,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="231896576"/>
-        <c:axId val="231898112"/>
+        <c:axId val="240952448"/>
+        <c:axId val="240953984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="231896576"/>
+        <c:axId val="240952448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,7 +475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231898112"/>
+        <c:crossAx val="240953984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -393,10 +483,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231898112"/>
+        <c:axId val="240953984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.4"/>
+          <c:max val="0.9"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -406,7 +496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231896576"/>
+        <c:crossAx val="240952448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -450,8 +540,98 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.321903367142652</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.19335632047250639</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.32138657926760628</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.16419500601419115</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.17429986931849567</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.19321835661585882</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.14895338569871897</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.15306643437845374</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.19877402021167556</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.11379513756454328</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.28194877391311923</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.27484217693473223</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.321903367142652</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.19335632047250639</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.32138657926760628</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.16419500601419115</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.17429986931849567</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.19321835661585882</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.14895338569871897</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.15306643437845374</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.19877402021167556</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.11379513756454328</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.28194877391311923</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.27484217693473223</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -553,11 +733,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="231930496"/>
-        <c:axId val="232530304"/>
+        <c:axId val="241772800"/>
+        <c:axId val="241786880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="231930496"/>
+        <c:axId val="241772800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,7 +747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232530304"/>
+        <c:crossAx val="241786880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -575,10 +755,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232530304"/>
+        <c:axId val="241786880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
+          <c:max val="3"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -588,7 +768,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231930496"/>
+        <c:crossAx val="241772800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -957,15 +1137,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:O17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -995,7 +1175,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1065,7 +1245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1103,6 +1283,10 @@
         <f>AVERAGE(B3:K3)</f>
         <v>0.16666666666666666</v>
       </c>
+      <c r="M3">
+        <f>_xlfn.STDEV.P(B3:K3)</f>
+        <v>0.16666666666666669</v>
+      </c>
       <c r="N3" s="3">
         <v>0</v>
       </c>
@@ -1140,8 +1324,12 @@
         <f>AVERAGE(O3:X3)</f>
         <v>1.3993333333333335</v>
       </c>
+      <c r="Z3">
+        <f>_xlfn.STDEV.P(O3:X3)</f>
+        <v>0.321903367142652</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1179,6 +1367,10 @@
         <f t="shared" ref="L4:L6" si="0">AVERAGE(B4:K4)</f>
         <v>0</v>
       </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M14" si="1">_xlfn.STDEV.P(B4:K4)</f>
+        <v>0</v>
+      </c>
       <c r="N4" s="3">
         <v>1</v>
       </c>
@@ -1213,11 +1405,15 @@
         <v>1.5266666666666666</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" ref="Y4:Y6" si="1">AVERAGE(O4:X4)</f>
+        <f t="shared" ref="Y4:Y6" si="2">AVERAGE(O4:X4)</f>
         <v>1.26</v>
       </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z14" si="3">_xlfn.STDEV.P(O4:X4)</f>
+        <v>0.19335632047250639</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1255,6 +1451,10 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="N5" s="3">
         <v>2</v>
       </c>
@@ -1289,11 +1489,15 @@
         <v>1.5266666666666666</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3113333333333332</v>
       </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0.32138657926760628</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1331,6 +1535,10 @@
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
       <c r="N6" s="3">
         <v>3</v>
       </c>
@@ -1365,11 +1573,15 @@
         <v>1.3666666666666665</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1666666666666665</v>
       </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>0.16419500601419115</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1405,6 +1617,10 @@
       </c>
       <c r="L7" s="5">
         <f>AVERAGE(B7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N7" s="3">
@@ -1444,8 +1660,12 @@
         <f>AVERAGE(O7:X7)</f>
         <v>0.99466666666666659</v>
       </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>0.17429986931849567</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1483,6 +1703,10 @@
         <f>AVERAGE(B8:K8)</f>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="N8" s="3">
         <v>5</v>
       </c>
@@ -1520,8 +1744,12 @@
         <f>AVERAGE(O8:X8)</f>
         <v>1.0066666666666666</v>
       </c>
+      <c r="Z8">
+        <f t="shared" si="3"/>
+        <v>0.19321835661585882</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1557,6 +1785,10 @@
       </c>
       <c r="L9" s="5">
         <f>AVERAGE(B9:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="3">
@@ -1596,8 +1828,12 @@
         <f>AVERAGE(O9:X9)</f>
         <v>0.92466666666666664</v>
       </c>
+      <c r="Z9">
+        <f t="shared" si="3"/>
+        <v>0.14895338569871897</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1632,8 +1868,12 @@
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10" si="2">AVERAGE(B10:K10)</f>
+        <f t="shared" ref="L10" si="4">AVERAGE(B10:K10)</f>
         <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="N10" s="3">
         <v>7</v>
@@ -1669,11 +1909,15 @@
         <v>1.2466666666666668</v>
       </c>
       <c r="Y10" s="5">
-        <f t="shared" ref="Y10" si="3">AVERAGE(O10:X10)</f>
+        <f t="shared" ref="Y10" si="5">AVERAGE(O10:X10)</f>
         <v>0.97466666666666657</v>
       </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>0.15306643437845374</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1711,6 +1955,10 @@
         <f>AVERAGE(B11:K11)</f>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
       <c r="N11" s="3">
         <v>8</v>
       </c>
@@ -1748,8 +1996,12 @@
         <f>AVERAGE(O11:X11)</f>
         <v>1.0999999999999999</v>
       </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>0.19877402021167556</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1784,8 +2036,12 @@
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" ref="L12" si="4">AVERAGE(B12:K12)</f>
+        <f t="shared" ref="L12" si="6">AVERAGE(B12:K12)</f>
         <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="N12" s="3">
         <v>9</v>
@@ -1821,11 +2077,15 @@
         <v>1.2933333333333332</v>
       </c>
       <c r="Y12" s="5">
-        <f t="shared" ref="Y12" si="5">AVERAGE(O12:X12)</f>
+        <f t="shared" ref="Y12" si="7">AVERAGE(O12:X12)</f>
         <v>1.1386666666666665</v>
       </c>
+      <c r="Z12">
+        <f t="shared" si="3"/>
+        <v>0.11379513756454328</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1863,6 +2123,10 @@
         <f>AVERAGE(B13:K13)</f>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="N13" s="3">
         <v>10</v>
       </c>
@@ -1900,8 +2164,12 @@
         <f>AVERAGE(O13:X13)</f>
         <v>1.2906666666666666</v>
       </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>0.28194877391311923</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -1936,8 +2204,12 @@
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" ref="L14" si="6">AVERAGE(B14:K14)</f>
+        <f t="shared" ref="L14" si="8">AVERAGE(B14:K14)</f>
         <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="N14" s="3">
         <v>11</v>
@@ -1973,11 +2245,15 @@
         <v>1.54</v>
       </c>
       <c r="Y14" s="5">
-        <f t="shared" ref="Y14" si="7">AVERAGE(O14:X14)</f>
+        <f t="shared" ref="Y14" si="9">AVERAGE(O14:X14)</f>
         <v>1.3086666666666666</v>
       </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>0.27484217693473223</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1986,43 +2262,43 @@
         <v>0</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" ref="C15:L15" si="8">AVERAGE(C3:C14)</f>
+        <f t="shared" ref="C15:L15" si="10">AVERAGE(C3:C14)</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="N15" s="3" t="s">
@@ -2033,43 +2309,43 @@
         <v>1.1338888888888887</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" ref="P15:Y15" si="9">AVERAGE(P3:P14)</f>
+        <f t="shared" ref="P15:Y15" si="11">AVERAGE(P3:P14)</f>
         <v>1.2933333333333332</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1133333333333335</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.85111111111111104</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0972222222222223</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.99611111111111106</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.2905555555555555</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.21</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1994444444444443</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.3783333333333332</v>
       </c>
       <c r="Y15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1563333333333332</v>
       </c>
     </row>
